--- a/documentacao/GR01Plano2C.xlsx
+++ b/documentacao/GR01Plano2C.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\github\projeto-pi\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\SPTECH\Upload GitHub\projeto-pi-sprint-1\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B680A439-FD48-4F6C-8CCC-03060FF2FB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F75992E-D243-439E-9FDA-6A394C9E24B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{0F7AF7EA-62D9-4957-B51D-C4337E278714}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0F7AF7EA-62D9-4957-B51D-C4337E278714}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="50">
   <si>
     <t>Requisito</t>
   </si>
@@ -180,10 +180,10 @@
     <t>Semana 3 (03/10 - 10/10)</t>
   </si>
   <si>
-    <t>Semana 3 (00/10 - 00/10)</t>
-  </si>
-  <si>
-    <t>Semana 4 (00/10 - 00/10)</t>
+    <t>Atualização de Backlog</t>
+  </si>
+  <si>
+    <t>Semana 4 (10/10 - 17/10)</t>
   </si>
 </sst>
 </file>
@@ -229,7 +229,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +248,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -392,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -485,10 +491,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,24 +840,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96E765B-8C51-4459-9F06-E0F4555F8357}">
   <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="96" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>40</v>
       </c>
@@ -851,7 +865,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="24" x14ac:dyDescent="0.4">
       <c r="B3" s="33" t="s">
         <v>11</v>
       </c>
@@ -864,7 +878,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -879,7 +893,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -905,7 +919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
@@ -931,7 +945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
@@ -957,7 +971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>17</v>
       </c>
@@ -983,7 +997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
@@ -1009,7 +1023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
@@ -1035,7 +1049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1051,7 +1065,7 @@
       <c r="G11" s="28"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1067,7 +1081,7 @@
       <c r="G12" s="28"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1083,7 +1097,7 @@
       <c r="G13" s="28"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
         <v>23</v>
       </c>
@@ -1102,7 +1116,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="35" t="s">
         <v>41</v>
       </c>
@@ -1110,7 +1124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10" ht="24" x14ac:dyDescent="0.4">
       <c r="B18" s="33" t="s">
         <v>11</v>
       </c>
@@ -1123,7 +1137,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1138,7 +1152,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>29</v>
       </c>
@@ -1190,7 +1204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
@@ -1216,7 +1230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
         <v>17</v>
       </c>
@@ -1242,7 +1256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
@@ -1268,7 +1282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>32</v>
       </c>
@@ -1294,15 +1308,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="18"/>
       <c r="E26" s="30"/>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="38">
         <v>45575</v>
       </c>
       <c r="I26" s="18" t="s">
@@ -1312,7 +1326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="18"/>
@@ -1320,7 +1334,7 @@
       <c r="G27" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="37">
         <v>45575</v>
       </c>
       <c r="I27" s="27" t="s">
@@ -1330,7 +1344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="18"/>
@@ -1338,7 +1352,7 @@
       <c r="G28" s="28"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="26"/>
       <c r="C29" s="5"/>
       <c r="D29" s="27"/>
@@ -1349,7 +1363,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="35" t="s">
         <v>44</v>
       </c>
@@ -1360,7 +1374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10" ht="24" x14ac:dyDescent="0.4">
       <c r="B36" s="33" t="s">
         <v>11</v>
       </c>
@@ -1373,9 +1387,9 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1388,7 +1402,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>0</v>
       </c>
@@ -1414,85 +1428,149 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="29"/>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="5">
+        <v>45575</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="5"/>
       <c r="I39" s="18"/>
       <c r="J39" s="21"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="29"/>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="5">
+        <v>45575</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="5"/>
       <c r="I40" s="18"/>
       <c r="J40" s="21"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="22"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="30"/>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="5">
+        <v>45575</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="5"/>
       <c r="I41" s="18"/>
       <c r="J41" s="21"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="7"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="30"/>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="5">
+        <v>45575</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="G42" s="32"/>
       <c r="H42" s="5"/>
       <c r="I42" s="15"/>
       <c r="J42" s="21"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="30"/>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45575</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>16</v>
+      </c>
       <c r="G43" s="31"/>
-      <c r="H43" s="6"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="20"/>
       <c r="J43" s="21"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="7"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="30"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="10"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="7"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="30"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="10"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="7"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="25"/>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="39">
+        <v>45575</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="36"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="40">
+        <v>45575</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="31"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="5">
+        <v>45575</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="G46" s="28"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="26"/>
       <c r="C47" s="5"/>
       <c r="D47" s="27"/>

--- a/documentacao/GR01Plano2C.xlsx
+++ b/documentacao/GR01Plano2C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\SPTECH\Upload GitHub\projeto-pi-sprint-1\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F75992E-D243-439E-9FDA-6A394C9E24B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5090BF2C-D3BD-49B4-B7E3-AECBAECCA956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0F7AF7EA-62D9-4957-B51D-C4337E278714}"/>
   </bookViews>
@@ -500,7 +500,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -841,7 +841,7 @@
   <dimension ref="B2:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="96" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1547,7 @@
         <v>18</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G45" s="31"/>
       <c r="H45" s="37"/>

--- a/documentacao/GR01Plano2C.xlsx
+++ b/documentacao/GR01Plano2C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\SPTECH\Upload GitHub\projeto-pi-sprint-1\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5090BF2C-D3BD-49B4-B7E3-AECBAECCA956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1241C95C-5AF3-45A2-AC75-E43DC1A6B34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0F7AF7EA-62D9-4957-B51D-C4337E278714}"/>
   </bookViews>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96E765B-8C51-4459-9F06-E0F4555F8357}">
   <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="96" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="96" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="5"/>
@@ -1565,7 +1565,7 @@
         <v>5</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G46" s="28"/>
       <c r="J46" s="10"/>

--- a/documentacao/GR01Plano2C.xlsx
+++ b/documentacao/GR01Plano2C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\SPTECH\Upload GitHub\projeto-pi-sprint-1\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1241C95C-5AF3-45A2-AC75-E43DC1A6B34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5565ABA9-F848-4731-B24E-628A7F641DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0F7AF7EA-62D9-4957-B51D-C4337E278714}"/>
   </bookViews>
@@ -841,7 +841,7 @@
   <dimension ref="B2:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="96" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1529,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="38"/>

--- a/documentacao/GR01Plano2C.xlsx
+++ b/documentacao/GR01Plano2C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\SPTECH\Upload GitHub\projeto-pi-sprint-1\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\projeto-pi-sprint-1\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5565ABA9-F848-4731-B24E-628A7F641DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A2C445-A4A0-40F9-A47E-53427374FA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0F7AF7EA-62D9-4957-B51D-C4337E278714}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F7AF7EA-62D9-4957-B51D-C4337E278714}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="60">
   <si>
     <t>Requisito</t>
   </si>
@@ -184,13 +184,43 @@
   </si>
   <si>
     <t>Semana 4 (10/10 - 17/10)</t>
+  </si>
+  <si>
+    <t>Melhoria da Dashboard</t>
+  </si>
+  <si>
+    <t>Continuação do Diagrama</t>
+  </si>
+  <si>
+    <t>Validações do site</t>
+  </si>
+  <si>
+    <t>Finalização do Site</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>P.O - Robert</t>
+  </si>
+  <si>
+    <t>Scrum Master: Nicolas</t>
+  </si>
+  <si>
+    <t>Semana 3 (17/10 - 24/10)</t>
+  </si>
+  <si>
+    <t>Semana 4 (24/10 - 31/10)</t>
+  </si>
+  <si>
+    <t>Aprimoramento Doc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,26 +868,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96E765B-8C51-4459-9F06-E0F4555F8357}">
-  <dimension ref="B2:J47"/>
+  <dimension ref="B2:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="96" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="13" customWidth="1"/>
+    <col min="6" max="6" width="4.375" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>40</v>
       </c>
@@ -865,7 +895,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="24" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="23.25">
       <c r="B3" s="33" t="s">
         <v>11</v>
       </c>
@@ -878,7 +908,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -893,7 +923,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -919,7 +949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
@@ -945,7 +975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
@@ -971,7 +1001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="22" t="s">
         <v>17</v>
       </c>
@@ -997,7 +1027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
@@ -1023,7 +1053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
@@ -1049,7 +1079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1065,7 +1095,7 @@
       <c r="G11" s="28"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10">
       <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1081,7 +1111,7 @@
       <c r="G12" s="28"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10">
       <c r="B13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1097,7 +1127,7 @@
       <c r="G13" s="28"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10">
       <c r="B14" s="26" t="s">
         <v>23</v>
       </c>
@@ -1116,7 +1146,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17" s="35" t="s">
         <v>41</v>
       </c>
@@ -1124,7 +1154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="24" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="23.25">
       <c r="B18" s="33" t="s">
         <v>11</v>
       </c>
@@ -1137,7 +1167,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="15">
       <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1152,7 +1182,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="15">
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +1208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10">
       <c r="B21" s="7" t="s">
         <v>29</v>
       </c>
@@ -1204,7 +1234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10">
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
@@ -1230,7 +1260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10">
       <c r="B23" s="22" t="s">
         <v>17</v>
       </c>
@@ -1256,7 +1286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10">
       <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
@@ -1282,7 +1312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10">
       <c r="B25" s="7" t="s">
         <v>32</v>
       </c>
@@ -1308,7 +1338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="18"/>
@@ -1326,7 +1356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="18"/>
@@ -1344,7 +1374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="18"/>
@@ -1352,7 +1382,7 @@
       <c r="G28" s="28"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10">
       <c r="B29" s="26"/>
       <c r="C29" s="5"/>
       <c r="D29" s="27"/>
@@ -1363,7 +1393,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10">
       <c r="B35" s="35" t="s">
         <v>44</v>
       </c>
@@ -1374,7 +1404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="24" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="23.25">
       <c r="B36" s="33" t="s">
         <v>11</v>
       </c>
@@ -1387,7 +1417,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="15">
       <c r="B37" s="1" t="s">
         <v>47</v>
       </c>
@@ -1402,7 +1432,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="15">
       <c r="B38" s="3" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10">
       <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
@@ -1441,12 +1471,20 @@
       <c r="E39" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="21"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="5">
+        <v>45582</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
       <c r="B40" s="7" t="s">
         <v>34</v>
       </c>
@@ -1459,12 +1497,20 @@
       <c r="E40" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="21"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="5">
+        <v>45582</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41" s="7" t="s">
         <v>35</v>
       </c>
@@ -1477,12 +1523,20 @@
       <c r="E41" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="21"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="5">
+        <v>45582</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
       <c r="B42" s="32" t="s">
         <v>36</v>
       </c>
@@ -1495,12 +1549,20 @@
       <c r="E42" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="21"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="5">
+        <v>45582</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
       <c r="B43" s="31" t="s">
         <v>37</v>
       </c>
@@ -1513,12 +1575,20 @@
       <c r="E43" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="31"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="21"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="5">
+        <v>45582</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
       <c r="B44" s="36" t="s">
         <v>38</v>
       </c>
@@ -1536,7 +1606,7 @@
       <c r="I44" s="18"/>
       <c r="J44" s="21"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10">
       <c r="B45" s="31" t="s">
         <v>39</v>
       </c>
@@ -1554,7 +1624,7 @@
       <c r="I45" s="27"/>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10">
       <c r="B46" s="7" t="s">
         <v>48</v>
       </c>
@@ -1570,7 +1640,7 @@
       <c r="G46" s="28"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10">
       <c r="B47" s="26"/>
       <c r="C47" s="5"/>
       <c r="D47" s="27"/>
@@ -1581,6 +1651,185 @@
       <c r="I47" s="11"/>
       <c r="J47" s="12"/>
     </row>
+    <row r="52" spans="2:10">
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="23.25">
+      <c r="B53" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="2:10" ht="15">
+      <c r="B54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="2:10" ht="15">
+      <c r="B55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="5">
+        <v>45582</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="5">
+        <v>45582</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="5">
+        <v>45582</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="5">
+        <v>45582</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="31"/>
+      <c r="C60" s="5">
+        <v>45582</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="36"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="25"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="31"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="29"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="7"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="29"/>
+      <c r="G63" s="28"/>
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="26"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/documentacao/GR01Plano2C.xlsx
+++ b/documentacao/GR01Plano2C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\projeto-pi-sprint-1\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A2C445-A4A0-40F9-A47E-53427374FA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C73442-738E-4969-86CC-F7D53E829FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F7AF7EA-62D9-4957-B51D-C4337E278714}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="60">
   <si>
     <t>Requisito</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Em andamento</t>
   </si>
   <si>
-    <t>P.O - Robert</t>
-  </si>
-  <si>
     <t>Scrum Master: Nicolas</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>Aprimoramento Doc.</t>
+  </si>
+  <si>
+    <t>P.O - Luana</t>
   </si>
 </sst>
 </file>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96E765B-8C51-4459-9F06-E0F4555F8357}">
   <dimension ref="B2:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="96" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1576,7 +1576,7 @@
         <v>16</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H43" s="5">
         <v>45582</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="52" spans="2:10">
       <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
         <v>55</v>
-      </c>
-      <c r="C52" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="23.25">
@@ -1674,13 +1674,13 @@
     </row>
     <row r="54" spans="2:10" ht="15">
       <c r="B54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="14"/>
       <c r="F54" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="14"/>
@@ -1778,7 +1778,9 @@
       <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="31"/>
+      <c r="B60" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="C60" s="5">
         <v>45582</v>
       </c>
